--- a/Code/Results/Cases/Case_0_159/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_159/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.73295940444439</v>
+        <v>13.75353294838964</v>
       </c>
       <c r="D2">
-        <v>6.71281870378593</v>
+        <v>9.314198999495279</v>
       </c>
       <c r="E2">
-        <v>9.520143386956645</v>
+        <v>14.48201513638037</v>
       </c>
       <c r="F2">
-        <v>22.99133006607801</v>
+        <v>34.62154931655703</v>
       </c>
       <c r="G2">
-        <v>26.09183241275854</v>
+        <v>36.98690962499956</v>
       </c>
       <c r="H2">
-        <v>9.605017380718738</v>
+        <v>16.39164745687302</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.107722400352259</v>
+        <v>10.64672197330557</v>
       </c>
       <c r="K2">
-        <v>19.2578335329002</v>
+        <v>16.07329673598626</v>
       </c>
       <c r="L2">
-        <v>5.603557476993359</v>
+        <v>9.820060085541362</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.75529247077088</v>
+        <v>17.6996484220083</v>
       </c>
       <c r="O2">
-        <v>16.19321959940838</v>
+        <v>26.04231660848015</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>10.31450909105567</v>
+        <v>13.70609396356384</v>
       </c>
       <c r="D3">
-        <v>6.476987239342824</v>
+        <v>9.285911085735648</v>
       </c>
       <c r="E3">
-        <v>9.307773507849257</v>
+        <v>14.47874736513846</v>
       </c>
       <c r="F3">
-        <v>22.61646744263229</v>
+        <v>34.68471398523327</v>
       </c>
       <c r="G3">
-        <v>25.5484037003888</v>
+        <v>37.05948513017547</v>
       </c>
       <c r="H3">
-        <v>9.629226736536561</v>
+        <v>16.44258800322698</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.105893722171295</v>
+        <v>10.66660163559762</v>
       </c>
       <c r="K3">
-        <v>17.98972441350602</v>
+        <v>15.66940166720202</v>
       </c>
       <c r="L3">
-        <v>5.592387428659769</v>
+        <v>9.832846465016145</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.78178960633162</v>
+        <v>17.72399907107707</v>
       </c>
       <c r="O3">
-        <v>16.10405496694795</v>
+        <v>26.12115368454332</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10.05478560561432</v>
+        <v>13.67969289713629</v>
       </c>
       <c r="D4">
-        <v>6.330073105560167</v>
+        <v>9.269768778961424</v>
       </c>
       <c r="E4">
-        <v>9.179463740191638</v>
+        <v>14.47893896849952</v>
       </c>
       <c r="F4">
-        <v>22.40377149965406</v>
+        <v>34.73151786678594</v>
       </c>
       <c r="G4">
-        <v>25.23957891101647</v>
+        <v>37.11501606054799</v>
       </c>
       <c r="H4">
-        <v>9.650897297052428</v>
+        <v>16.47657353105566</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.10723175191428</v>
+        <v>10.67996885251303</v>
       </c>
       <c r="K4">
-        <v>17.16423387796514</v>
+        <v>15.41732746090355</v>
       </c>
       <c r="L4">
-        <v>5.587146910152244</v>
+        <v>9.841540304724107</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.80180361964007</v>
+        <v>17.74071860993352</v>
       </c>
       <c r="O4">
-        <v>16.06393129297052</v>
+        <v>26.17511972698597</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.948404803554146</v>
+        <v>13.66962821145371</v>
       </c>
       <c r="D5">
-        <v>6.269761133593738</v>
+        <v>9.263503590081774</v>
       </c>
       <c r="E5">
-        <v>9.127760253703412</v>
+        <v>14.4795714443479</v>
       </c>
       <c r="F5">
-        <v>22.32147452921844</v>
+        <v>34.75260383523527</v>
       </c>
       <c r="G5">
-        <v>25.1199746861034</v>
+        <v>37.14039408470633</v>
       </c>
       <c r="H5">
-        <v>9.66137755996297</v>
+        <v>16.49110345597783</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.108383813553715</v>
+        <v>10.68570840027189</v>
       </c>
       <c r="K5">
-        <v>16.81600846393576</v>
+        <v>15.31371889923233</v>
       </c>
       <c r="L5">
-        <v>5.585414582980186</v>
+        <v>9.845295521917784</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.81088131636269</v>
+        <v>17.74797742032359</v>
       </c>
       <c r="O5">
-        <v>16.05114079181794</v>
+        <v>26.19850641527728</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.930712666414459</v>
+        <v>13.66799911981204</v>
       </c>
       <c r="D6">
-        <v>6.259722326653259</v>
+        <v>9.262482286703289</v>
       </c>
       <c r="E6">
-        <v>9.119211920436889</v>
+        <v>14.47970999560207</v>
       </c>
       <c r="F6">
-        <v>22.30807288349365</v>
+        <v>34.75622660211795</v>
       </c>
       <c r="G6">
-        <v>25.10049101532242</v>
+        <v>37.14477379938159</v>
       </c>
       <c r="H6">
-        <v>9.663215618027317</v>
+        <v>16.49355723164244</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.108611410862999</v>
+        <v>10.68667911203048</v>
       </c>
       <c r="K6">
-        <v>16.75747004002886</v>
+        <v>15.29646548242186</v>
       </c>
       <c r="L6">
-        <v>5.585151176508899</v>
+        <v>9.84593191451415</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.81244377337426</v>
+        <v>17.74920966981018</v>
       </c>
       <c r="O6">
-        <v>16.04922842320008</v>
+        <v>26.20247392781907</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>10.05335288458756</v>
+        <v>13.67955434100485</v>
       </c>
       <c r="D7">
-        <v>6.329261390038051</v>
+        <v>9.269683011635729</v>
       </c>
       <c r="E7">
-        <v>9.178764006814241</v>
+        <v>14.4789452514927</v>
       </c>
       <c r="F7">
-        <v>22.40264391709707</v>
+        <v>34.73179409443223</v>
       </c>
       <c r="G7">
-        <v>25.23794062719529</v>
+        <v>37.11534720155525</v>
       </c>
       <c r="H7">
-        <v>9.651032040785374</v>
+        <v>16.47676673168845</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.10724484794573</v>
+        <v>10.6800450740974</v>
       </c>
       <c r="K7">
-        <v>17.15958555159586</v>
+        <v>15.41593355776136</v>
       </c>
       <c r="L7">
-        <v>5.587121919615113</v>
+        <v>9.841590088288486</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.80192233775901</v>
+        <v>17.74081470001491</v>
       </c>
       <c r="O7">
-        <v>16.06374453985686</v>
+        <v>26.17542948341357</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.58934913745092</v>
+        <v>13.73661528856746</v>
       </c>
       <c r="D8">
-        <v>6.631992836950768</v>
+        <v>9.304193524222212</v>
       </c>
       <c r="E8">
-        <v>9.446520625944665</v>
+        <v>14.48043327889356</v>
       </c>
       <c r="F8">
-        <v>22.85844681936415</v>
+        <v>34.64166170474426</v>
       </c>
       <c r="G8">
-        <v>25.8993088379129</v>
+        <v>37.00965155651483</v>
       </c>
       <c r="H8">
-        <v>9.611914593300011</v>
+        <v>16.40864953629671</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.106573905782837</v>
+        <v>10.65333572211165</v>
       </c>
       <c r="K8">
-        <v>18.83028742225745</v>
+        <v>15.93496232064462</v>
       </c>
       <c r="L8">
-        <v>5.599368104698832</v>
+        <v>9.824294140226382</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.76363930824979</v>
+        <v>17.70767805871353</v>
       </c>
       <c r="O8">
-        <v>16.15937209688959</v>
+        <v>26.06834396510539</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>11.61203898735203</v>
+        <v>13.86974707313426</v>
       </c>
       <c r="D9">
-        <v>7.20543188577696</v>
+        <v>9.381392705804807</v>
       </c>
       <c r="E9">
-        <v>9.985595055614088</v>
+        <v>14.50071025341341</v>
       </c>
       <c r="F9">
-        <v>23.89089718188834</v>
+        <v>34.52870028442837</v>
       </c>
       <c r="G9">
-        <v>27.39225870155886</v>
+        <v>36.88979761568024</v>
       </c>
       <c r="H9">
-        <v>9.592025287863224</v>
+        <v>16.29657309353901</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.125323287386767</v>
+        <v>10.61015548962931</v>
       </c>
       <c r="K9">
-        <v>21.73696100879022</v>
+        <v>16.91464497343992</v>
       </c>
       <c r="L9">
-        <v>5.636378816773309</v>
+        <v>9.797045907932484</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.7192110817292</v>
+        <v>17.65668974949245</v>
       </c>
       <c r="O9">
-        <v>16.46780685629421</v>
+        <v>25.90259134886737</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>12.33896091657863</v>
+        <v>13.97992251601251</v>
       </c>
       <c r="D10">
-        <v>7.610379050379286</v>
+        <v>9.443623145789822</v>
       </c>
       <c r="E10">
-        <v>10.38693206513799</v>
+        <v>14.52607004920644</v>
       </c>
       <c r="F10">
-        <v>24.73320908790436</v>
+        <v>34.48476453269959</v>
       </c>
       <c r="G10">
-        <v>28.60585732198821</v>
+        <v>36.85547295060857</v>
       </c>
       <c r="H10">
-        <v>9.615960106281946</v>
+        <v>16.22735940451775</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.152076191609806</v>
+        <v>10.58401652863535</v>
       </c>
       <c r="K10">
-        <v>23.65061883366545</v>
+        <v>17.60406166170281</v>
       </c>
       <c r="L10">
-        <v>5.671707841031946</v>
+        <v>9.781066171805897</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.70660112470259</v>
+        <v>17.62770988892597</v>
       </c>
       <c r="O10">
-        <v>16.77424890469203</v>
+        <v>25.80795108132751</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.66317661842322</v>
+        <v>14.03259051033723</v>
       </c>
       <c r="D11">
-        <v>7.790360214187868</v>
+        <v>9.473062738657246</v>
       </c>
       <c r="E11">
-        <v>10.5700287614073</v>
+        <v>14.53984851024621</v>
       </c>
       <c r="F11">
-        <v>25.13426630251906</v>
+        <v>34.47328114640749</v>
       </c>
       <c r="G11">
-        <v>29.18245837328175</v>
+        <v>36.85159230781508</v>
       </c>
       <c r="H11">
-        <v>9.636068143578804</v>
+        <v>16.19872752106631</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.167226404277672</v>
+        <v>10.57333350782563</v>
       </c>
       <c r="K11">
-        <v>24.47380829404615</v>
+        <v>17.909773536985</v>
       </c>
       <c r="L11">
-        <v>5.689591572698036</v>
+        <v>9.774668071472709</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.70552520124594</v>
+        <v>17.61635728166806</v>
       </c>
       <c r="O11">
-        <v>16.93214166136061</v>
+        <v>25.77082226338806</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.78494250374504</v>
+        <v>14.05288834318724</v>
       </c>
       <c r="D12">
-        <v>7.857859038873698</v>
+        <v>9.484367249576284</v>
       </c>
       <c r="E12">
-        <v>10.63939123423359</v>
+        <v>14.54538550431957</v>
       </c>
       <c r="F12">
-        <v>25.28867357025952</v>
+        <v>34.47015611625698</v>
       </c>
       <c r="G12">
-        <v>29.40425065421812</v>
+        <v>36.85181325297754</v>
       </c>
       <c r="H12">
-        <v>9.645078516695381</v>
+        <v>16.18829612122461</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.173405286877913</v>
+        <v>10.56946141285196</v>
       </c>
       <c r="K12">
-        <v>24.77878788283747</v>
+        <v>18.02430255722103</v>
       </c>
       <c r="L12">
-        <v>5.696627791369803</v>
+        <v>9.772370071375077</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.70581497065571</v>
+        <v>17.61232066324523</v>
       </c>
       <c r="O12">
-        <v>16.9946734391122</v>
+        <v>25.75761674872966</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.75876393481911</v>
+        <v>14.04850132610494</v>
       </c>
       <c r="D13">
-        <v>7.843351821328453</v>
+        <v>9.481925767045615</v>
       </c>
       <c r="E13">
-        <v>10.62445226436864</v>
+        <v>14.54417885933006</v>
       </c>
       <c r="F13">
-        <v>25.25530701065238</v>
+        <v>34.4707747289935</v>
       </c>
       <c r="G13">
-        <v>29.35633172116009</v>
+        <v>36.85169045036956</v>
       </c>
       <c r="H13">
-        <v>9.643074771036542</v>
+        <v>16.19052442827433</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.172054690067852</v>
+        <v>10.57028763419448</v>
       </c>
       <c r="K13">
-        <v>24.71340398985358</v>
+        <v>17.99969322505485</v>
       </c>
       <c r="L13">
-        <v>5.695100617916321</v>
+        <v>9.772859442590413</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.70572111257356</v>
+        <v>17.61317836610866</v>
       </c>
       <c r="O13">
-        <v>16.98108295057314</v>
+        <v>25.76042275574302</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.67321495720072</v>
+        <v>14.03425341426649</v>
       </c>
       <c r="D14">
-        <v>7.795926779731198</v>
+        <v>9.47398966985352</v>
       </c>
       <c r="E14">
-        <v>10.57573495591673</v>
+        <v>14.54029765920779</v>
       </c>
       <c r="F14">
-        <v>25.14691887305777</v>
+        <v>34.47299952636618</v>
       </c>
       <c r="G14">
-        <v>29.20063675137656</v>
+        <v>36.85157659297032</v>
       </c>
       <c r="H14">
-        <v>9.636781054512989</v>
+        <v>16.1978610861852</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.16772581305748</v>
+        <v>10.57301147634398</v>
       </c>
       <c r="K14">
-        <v>24.49903394263453</v>
+        <v>17.91922125260855</v>
       </c>
       <c r="L14">
-        <v>5.690165135263194</v>
+        <v>9.774476514616657</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.70553490883436</v>
+        <v>17.61601993333938</v>
       </c>
       <c r="O14">
-        <v>16.9372308041924</v>
+        <v>25.76971870102532</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12.62068046738489</v>
+        <v>14.02557181480522</v>
       </c>
       <c r="D15">
-        <v>7.766790836206789</v>
+        <v>9.469148758180864</v>
       </c>
       <c r="E15">
-        <v>10.54589646601361</v>
+        <v>14.53796181218774</v>
       </c>
       <c r="F15">
-        <v>25.08085713509044</v>
+        <v>34.47452162130303</v>
       </c>
       <c r="G15">
-        <v>29.10571548355501</v>
+        <v>36.8517270681718</v>
       </c>
       <c r="H15">
-        <v>9.633109841348999</v>
+        <v>16.20240852348531</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.16513218709452</v>
+        <v>10.57470247127609</v>
       </c>
       <c r="K15">
-        <v>24.36684971079403</v>
+        <v>17.86976586438514</v>
       </c>
       <c r="L15">
-        <v>5.6871764969855</v>
+        <v>9.775483259891079</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.70551247183984</v>
+        <v>17.61779461776739</v>
       </c>
       <c r="O15">
-        <v>16.91072940617002</v>
+        <v>25.77552407210699</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>12.31763556214737</v>
+        <v>13.97653073551938</v>
       </c>
       <c r="D16">
-        <v>7.598527466395639</v>
+        <v>9.441721424578557</v>
       </c>
       <c r="E16">
-        <v>10.37497265104068</v>
+        <v>14.52521445865701</v>
       </c>
       <c r="F16">
-        <v>24.70735587253472</v>
+        <v>34.48568618404326</v>
       </c>
       <c r="G16">
-        <v>28.56866168946071</v>
+        <v>36.85596297722571</v>
       </c>
       <c r="H16">
-        <v>9.61483751357717</v>
+        <v>16.22928803406773</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.151147189389712</v>
+        <v>10.58473896313695</v>
       </c>
       <c r="K16">
-        <v>23.59587416650874</v>
+        <v>17.5839147786237</v>
       </c>
       <c r="L16">
-        <v>5.670575858802886</v>
+        <v>9.781501794388138</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.70676750294518</v>
+        <v>17.62848856980497</v>
       </c>
       <c r="O16">
-        <v>16.76430951991504</v>
+        <v>25.81049695714977</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>12.13001126267936</v>
+        <v>13.94708940562757</v>
       </c>
       <c r="D17">
-        <v>7.494183282692381</v>
+        <v>9.42518087813847</v>
       </c>
       <c r="E17">
-        <v>10.27021566339235</v>
+        <v>14.5179665592349</v>
       </c>
       <c r="F17">
-        <v>24.48278037924907</v>
+        <v>34.49471390442431</v>
       </c>
       <c r="G17">
-        <v>28.24542091094884</v>
+        <v>36.8615695917825</v>
       </c>
       <c r="H17">
-        <v>9.606039275755682</v>
+        <v>16.24650902611875</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.143340534170513</v>
+        <v>10.59120511655589</v>
       </c>
       <c r="K17">
-        <v>23.11082424214067</v>
+        <v>17.40645497670082</v>
       </c>
       <c r="L17">
-        <v>5.660858529089534</v>
+        <v>9.785416777767345</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.7087499382387</v>
+        <v>17.63551718969992</v>
       </c>
       <c r="O17">
-        <v>16.67928242918853</v>
+        <v>25.83347073224536</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>12.0214899071554</v>
+        <v>13.93039623003411</v>
       </c>
       <c r="D18">
-        <v>7.433771356395774</v>
+        <v>9.415774000966994</v>
       </c>
       <c r="E18">
-        <v>10.21001436138272</v>
+        <v>14.51400899823486</v>
       </c>
       <c r="F18">
-        <v>24.35529629301943</v>
+        <v>34.50070677439704</v>
       </c>
       <c r="G18">
-        <v>28.06181512607492</v>
+        <v>36.86589871470853</v>
       </c>
       <c r="H18">
-        <v>9.601842380881504</v>
+        <v>16.25668266644603</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.139130058085373</v>
+        <v>10.59503797429691</v>
       </c>
       <c r="K18">
-        <v>22.82737623057893</v>
+        <v>17.3036459682981</v>
       </c>
       <c r="L18">
-        <v>5.655439764448476</v>
+        <v>9.787750597940772</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.71032715466025</v>
+        <v>17.63973221093082</v>
       </c>
       <c r="O18">
-        <v>16.63211309297134</v>
+        <v>25.84724204754131</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.98464518612023</v>
+        <v>13.92478593091132</v>
       </c>
       <c r="D19">
-        <v>7.413250493639318</v>
+        <v>9.412607524163285</v>
       </c>
       <c r="E19">
-        <v>10.18964172937157</v>
+        <v>14.51270540512997</v>
       </c>
       <c r="F19">
-        <v>24.3124229970125</v>
+        <v>34.50287328649019</v>
       </c>
       <c r="G19">
-        <v>28.00004924949005</v>
+        <v>36.86755403384567</v>
       </c>
       <c r="H19">
-        <v>9.600567580072097</v>
+        <v>16.26017339972467</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.137752101252411</v>
+        <v>10.59635525178769</v>
       </c>
       <c r="K19">
-        <v>22.73063768439062</v>
+        <v>17.26871291204132</v>
       </c>
       <c r="L19">
-        <v>5.653634223876155</v>
+        <v>9.788554890869333</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.71093541848081</v>
+        <v>17.64118897087136</v>
       </c>
       <c r="O19">
-        <v>16.61643789969525</v>
+        <v>25.85200043215418</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>12.15004739896327</v>
+        <v>13.95019866556098</v>
       </c>
       <c r="D20">
-        <v>7.505332243606815</v>
+        <v>9.426930637698188</v>
       </c>
       <c r="E20">
-        <v>10.28136218912543</v>
+        <v>14.5187162692758</v>
       </c>
       <c r="F20">
-        <v>24.50651261070902</v>
+        <v>34.49367004591652</v>
       </c>
       <c r="G20">
-        <v>28.27959157275126</v>
+        <v>36.86085843483288</v>
       </c>
       <c r="H20">
-        <v>9.606885974979589</v>
+        <v>16.24464802125746</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.144142521896845</v>
+        <v>10.5905050186458</v>
       </c>
       <c r="K20">
-        <v>23.16291978930288</v>
+        <v>17.42542309572656</v>
       </c>
       <c r="L20">
-        <v>5.661875296370426</v>
+        <v>9.784991535033823</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.70849348751613</v>
+        <v>17.63475115018283</v>
       </c>
       <c r="O20">
-        <v>16.68815342022368</v>
+        <v>25.83096742584219</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.69837065731674</v>
+        <v>14.03842888004964</v>
       </c>
       <c r="D21">
-        <v>7.809874814505013</v>
+        <v>9.47631650046471</v>
       </c>
       <c r="E21">
-        <v>10.59004401648859</v>
+        <v>14.54142901890847</v>
       </c>
       <c r="F21">
-        <v>25.17868657164968</v>
+        <v>34.47231284237629</v>
       </c>
       <c r="G21">
-        <v>29.24627524996454</v>
+        <v>36.85156413925678</v>
       </c>
       <c r="H21">
-        <v>9.638591228012826</v>
+        <v>16.19569497699811</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.16898521133922</v>
+        <v>10.57220671638878</v>
       </c>
       <c r="K21">
-        <v>24.56218214315556</v>
+        <v>17.94289216222475</v>
       </c>
       <c r="L21">
-        <v>5.691607612881142</v>
+        <v>9.773998157367942</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.70557045835796</v>
+        <v>17.61517818244921</v>
       </c>
       <c r="O21">
-        <v>16.95003622616979</v>
+        <v>25.76696504989011</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>13.05083304921111</v>
+        <v>14.09814715096859</v>
       </c>
       <c r="D22">
-        <v>8.005069579112641</v>
+        <v>9.5095014767805</v>
       </c>
       <c r="E22">
-        <v>10.7919282744945</v>
+        <v>14.55813319484056</v>
       </c>
       <c r="F22">
-        <v>25.63275416453999</v>
+        <v>34.46548586940996</v>
       </c>
       <c r="G22">
-        <v>29.89811004737803</v>
+        <v>36.85534348813288</v>
       </c>
       <c r="H22">
-        <v>9.66748141384112</v>
+        <v>16.16609643748186</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.187802959051</v>
+        <v>10.56125787398446</v>
       </c>
       <c r="K22">
-        <v>25.43740092271262</v>
+        <v>18.2738348966429</v>
       </c>
       <c r="L22">
-        <v>5.71258002866714</v>
+        <v>9.767540691203594</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.7077372794473</v>
+        <v>17.60391498968713</v>
       </c>
       <c r="O22">
-        <v>17.13720302643987</v>
+        <v>25.7301167303424</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.8632788540893</v>
+        <v>14.06609077813219</v>
       </c>
       <c r="D23">
-        <v>7.901255796346404</v>
+        <v>9.491709009079578</v>
       </c>
       <c r="E23">
-        <v>10.68418036984253</v>
+        <v>14.54904872475111</v>
       </c>
       <c r="F23">
-        <v>25.3890708481801</v>
+        <v>34.46847699641457</v>
       </c>
       <c r="G23">
-        <v>29.54840477831462</v>
+        <v>36.85242410599066</v>
       </c>
       <c r="H23">
-        <v>9.651291521238859</v>
+        <v>16.18167442044854</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.1775189136253</v>
+        <v>10.5670091612721</v>
       </c>
       <c r="K23">
-        <v>24.97385262147249</v>
+        <v>18.09789913989503</v>
       </c>
       <c r="L23">
-        <v>5.701244549554192</v>
+        <v>9.770920761394649</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.70619850496938</v>
+        <v>17.60978676108686</v>
       </c>
       <c r="O23">
-        <v>17.0358181633868</v>
+        <v>25.74932681844622</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>12.14099109162836</v>
+        <v>13.94879224230228</v>
       </c>
       <c r="D24">
-        <v>7.500293112430772</v>
+        <v>9.426139251656206</v>
       </c>
       <c r="E24">
-        <v>10.27632276362937</v>
+        <v>14.51837667303565</v>
       </c>
       <c r="F24">
-        <v>24.49577819723847</v>
+        <v>34.49413947399719</v>
       </c>
       <c r="G24">
-        <v>28.2641360654617</v>
+        <v>36.86117650461369</v>
       </c>
       <c r="H24">
-        <v>9.60650050471795</v>
+        <v>16.24548853100423</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.14377907935584</v>
+        <v>10.59082117348755</v>
       </c>
       <c r="K24">
-        <v>23.13938168265626</v>
+        <v>17.41685004649153</v>
       </c>
       <c r="L24">
-        <v>5.661415093301633</v>
+        <v>9.785183528567206</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.70860806824309</v>
+        <v>17.63509693403697</v>
       </c>
       <c r="O24">
-        <v>16.68413751316282</v>
+        <v>25.83209741592994</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>11.33921570851515</v>
+        <v>13.83151528693423</v>
       </c>
       <c r="D25">
-        <v>7.052913979768836</v>
+        <v>9.359518009492508</v>
       </c>
       <c r="E25">
-        <v>9.838608286860445</v>
+        <v>14.49337789411797</v>
       </c>
       <c r="F25">
-        <v>23.59678917560671</v>
+        <v>34.55241026759843</v>
       </c>
       <c r="G25">
-        <v>26.9676152639767</v>
+        <v>36.91281214293927</v>
       </c>
       <c r="H25">
-        <v>9.590921785577406</v>
+        <v>16.3245886624497</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.118026171126174</v>
+        <v>10.6208544556122</v>
       </c>
       <c r="K25">
-        <v>20.98985144280744</v>
+        <v>16.65446485805984</v>
       </c>
       <c r="L25">
-        <v>5.624952579161594</v>
+        <v>9.80370597743987</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.72781377193434</v>
+        <v>17.66899045525572</v>
       </c>
       <c r="O25">
-        <v>16.37076050794475</v>
+        <v>25.94267753962627</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_159/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_159/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.75353294838964</v>
+        <v>10.73295940444436</v>
       </c>
       <c r="D2">
-        <v>9.314198999495279</v>
+        <v>6.712818703785952</v>
       </c>
       <c r="E2">
-        <v>14.48201513638037</v>
+        <v>9.52014338695669</v>
       </c>
       <c r="F2">
-        <v>34.62154931655703</v>
+        <v>22.99133006607809</v>
       </c>
       <c r="G2">
-        <v>36.98690962499956</v>
+        <v>26.09183241275852</v>
       </c>
       <c r="H2">
-        <v>16.39164745687302</v>
+        <v>9.605017380718781</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.64672197330557</v>
+        <v>6.107722400352285</v>
       </c>
       <c r="K2">
-        <v>16.07329673598626</v>
+        <v>19.2578335329002</v>
       </c>
       <c r="L2">
-        <v>9.820060085541362</v>
+        <v>5.603557476993414</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.6996484220083</v>
+        <v>12.75529247077097</v>
       </c>
       <c r="O2">
-        <v>26.04231660848015</v>
+        <v>16.19321959940844</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.70609396356384</v>
+        <v>10.3145090910556</v>
       </c>
       <c r="D3">
-        <v>9.285911085735648</v>
+        <v>6.476987239342905</v>
       </c>
       <c r="E3">
-        <v>14.47874736513846</v>
+        <v>9.30777350784926</v>
       </c>
       <c r="F3">
-        <v>34.68471398523327</v>
+        <v>22.61646744263214</v>
       </c>
       <c r="G3">
-        <v>37.05948513017547</v>
+        <v>25.54840370038838</v>
       </c>
       <c r="H3">
-        <v>16.44258800322698</v>
+        <v>9.629226736536554</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.66660163559762</v>
+        <v>6.105893722171239</v>
       </c>
       <c r="K3">
-        <v>15.66940166720202</v>
+        <v>17.98972441350606</v>
       </c>
       <c r="L3">
-        <v>9.832846465016145</v>
+        <v>5.59238742865977</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.72399907107707</v>
+        <v>12.78178960633159</v>
       </c>
       <c r="O3">
-        <v>26.12115368454332</v>
+        <v>16.10405496694781</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>13.67969289713629</v>
+        <v>10.05478560561439</v>
       </c>
       <c r="D4">
-        <v>9.269768778961424</v>
+        <v>6.330073105560152</v>
       </c>
       <c r="E4">
-        <v>14.47893896849952</v>
+        <v>9.179463740191629</v>
       </c>
       <c r="F4">
-        <v>34.73151786678594</v>
+        <v>22.40377149965402</v>
       </c>
       <c r="G4">
-        <v>37.11501606054799</v>
+        <v>25.23957891101639</v>
       </c>
       <c r="H4">
-        <v>16.47657353105566</v>
+        <v>9.650897297052428</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.67996885251303</v>
+        <v>6.107231751914249</v>
       </c>
       <c r="K4">
-        <v>15.41732746090355</v>
+        <v>17.16423387796516</v>
       </c>
       <c r="L4">
-        <v>9.841540304724107</v>
+        <v>5.58714691015224</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.74071860993352</v>
+        <v>12.80180361964004</v>
       </c>
       <c r="O4">
-        <v>26.17511972698597</v>
+        <v>16.06393129297048</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13.66962821145371</v>
+        <v>9.948404803554206</v>
       </c>
       <c r="D5">
-        <v>9.263503590081774</v>
+        <v>6.269761133593653</v>
       </c>
       <c r="E5">
-        <v>14.4795714443479</v>
+        <v>9.127760253703411</v>
       </c>
       <c r="F5">
-        <v>34.75260383523527</v>
+        <v>22.32147452921835</v>
       </c>
       <c r="G5">
-        <v>37.14039408470633</v>
+        <v>25.11997468610321</v>
       </c>
       <c r="H5">
-        <v>16.49110345597783</v>
+        <v>9.661377559962961</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.68570840027189</v>
+        <v>6.108383813553772</v>
       </c>
       <c r="K5">
-        <v>15.31371889923233</v>
+        <v>16.81600846393574</v>
       </c>
       <c r="L5">
-        <v>9.845295521917784</v>
+        <v>5.585414582980123</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.74797742032359</v>
+        <v>12.8108813163627</v>
       </c>
       <c r="O5">
-        <v>26.19850641527728</v>
+        <v>16.0511407918179</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13.66799911981204</v>
+        <v>9.930712666414507</v>
       </c>
       <c r="D6">
-        <v>9.262482286703289</v>
+        <v>6.259722326653345</v>
       </c>
       <c r="E6">
-        <v>14.47970999560207</v>
+        <v>9.119211920436987</v>
       </c>
       <c r="F6">
-        <v>34.75622660211795</v>
+        <v>22.30807288349375</v>
       </c>
       <c r="G6">
-        <v>37.14477379938159</v>
+        <v>25.10049101532255</v>
       </c>
       <c r="H6">
-        <v>16.49355723164244</v>
+        <v>9.663215618027317</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.68667911203048</v>
+        <v>6.108611410863059</v>
       </c>
       <c r="K6">
-        <v>15.29646548242186</v>
+        <v>16.75747004002885</v>
       </c>
       <c r="L6">
-        <v>9.84593191451415</v>
+        <v>5.585151176508956</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.74920966981018</v>
+        <v>12.81244377337426</v>
       </c>
       <c r="O6">
-        <v>26.20247392781907</v>
+        <v>16.04922842320013</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>13.67955434100485</v>
+        <v>10.0533528845875</v>
       </c>
       <c r="D7">
-        <v>9.269683011635729</v>
+        <v>6.329261390037898</v>
       </c>
       <c r="E7">
-        <v>14.4789452514927</v>
+        <v>9.178764006814145</v>
       </c>
       <c r="F7">
-        <v>34.73179409443223</v>
+        <v>22.40264391709706</v>
       </c>
       <c r="G7">
-        <v>37.11534720155525</v>
+        <v>25.23794062719544</v>
       </c>
       <c r="H7">
-        <v>16.47676673168845</v>
+        <v>9.651032040785369</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.6800450740974</v>
+        <v>6.107244847945699</v>
       </c>
       <c r="K7">
-        <v>15.41593355776136</v>
+        <v>17.15958555159583</v>
       </c>
       <c r="L7">
-        <v>9.841590088288486</v>
+        <v>5.587121919615049</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.74081470001491</v>
+        <v>12.80192233775901</v>
       </c>
       <c r="O7">
-        <v>26.17542948341357</v>
+        <v>16.06374453985693</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.73661528856746</v>
+        <v>10.58934913745108</v>
       </c>
       <c r="D8">
-        <v>9.304193524222212</v>
+        <v>6.63199283695083</v>
       </c>
       <c r="E8">
-        <v>14.48043327889356</v>
+        <v>9.446520625944716</v>
       </c>
       <c r="F8">
-        <v>34.64166170474426</v>
+        <v>22.85844681936418</v>
       </c>
       <c r="G8">
-        <v>37.00965155651483</v>
+        <v>25.89930883791287</v>
       </c>
       <c r="H8">
-        <v>16.40864953629671</v>
+        <v>9.611914593300069</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.65333572211165</v>
+        <v>6.106573905782841</v>
       </c>
       <c r="K8">
-        <v>15.93496232064462</v>
+        <v>18.83028742225746</v>
       </c>
       <c r="L8">
-        <v>9.824294140226382</v>
+        <v>5.599368104698807</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.70767805871353</v>
+        <v>12.76363930824978</v>
       </c>
       <c r="O8">
-        <v>26.06834396510539</v>
+        <v>16.15937209688959</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.86974707313426</v>
+        <v>11.61203898735193</v>
       </c>
       <c r="D9">
-        <v>9.381392705804807</v>
+        <v>7.205431885776928</v>
       </c>
       <c r="E9">
-        <v>14.50071025341341</v>
+        <v>9.985595055614169</v>
       </c>
       <c r="F9">
-        <v>34.52870028442837</v>
+        <v>23.89089718188838</v>
       </c>
       <c r="G9">
-        <v>36.88979761568024</v>
+        <v>27.39225870155902</v>
       </c>
       <c r="H9">
-        <v>16.29657309353901</v>
+        <v>9.592025287863235</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.61015548962931</v>
+        <v>6.125323287386843</v>
       </c>
       <c r="K9">
-        <v>16.91464497343992</v>
+        <v>21.7369610087902</v>
       </c>
       <c r="L9">
-        <v>9.797045907932484</v>
+        <v>5.636378816773388</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.65668974949245</v>
+        <v>12.71921108172917</v>
       </c>
       <c r="O9">
-        <v>25.90259134886737</v>
+        <v>16.46780685629427</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.97992251601251</v>
+        <v>12.33896091657862</v>
       </c>
       <c r="D10">
-        <v>9.443623145789822</v>
+        <v>7.610379050379307</v>
       </c>
       <c r="E10">
-        <v>14.52607004920644</v>
+        <v>10.386932065138</v>
       </c>
       <c r="F10">
-        <v>34.48476453269959</v>
+        <v>24.73320908790425</v>
       </c>
       <c r="G10">
-        <v>36.85547295060857</v>
+        <v>28.60585732198805</v>
       </c>
       <c r="H10">
-        <v>16.22735940451775</v>
+        <v>9.615960106281909</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.58401652863535</v>
+        <v>6.152076191609782</v>
       </c>
       <c r="K10">
-        <v>17.60406166170281</v>
+        <v>23.6506188336655</v>
       </c>
       <c r="L10">
-        <v>9.781066171805897</v>
+        <v>5.671707841032</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.62770988892597</v>
+        <v>12.70660112470255</v>
       </c>
       <c r="O10">
-        <v>25.80795108132751</v>
+        <v>16.77424890469191</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>14.03259051033723</v>
+        <v>12.66317661842329</v>
       </c>
       <c r="D11">
-        <v>9.473062738657246</v>
+        <v>7.790360214187922</v>
       </c>
       <c r="E11">
-        <v>14.53984851024621</v>
+        <v>10.57002876140734</v>
       </c>
       <c r="F11">
-        <v>34.47328114640749</v>
+        <v>25.13426630251906</v>
       </c>
       <c r="G11">
-        <v>36.85159230781508</v>
+        <v>29.1824583732817</v>
       </c>
       <c r="H11">
-        <v>16.19872752106631</v>
+        <v>9.636068143578804</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.57333350782563</v>
+        <v>6.167226404277645</v>
       </c>
       <c r="K11">
-        <v>17.909773536985</v>
+        <v>24.47380829404618</v>
       </c>
       <c r="L11">
-        <v>9.774668071472709</v>
+        <v>5.68959157269809</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.61635728166806</v>
+        <v>12.70552520124591</v>
       </c>
       <c r="O11">
-        <v>25.77082226338806</v>
+        <v>16.93214166136056</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>14.05288834318724</v>
+        <v>12.78494250374508</v>
       </c>
       <c r="D12">
-        <v>9.484367249576284</v>
+        <v>7.857859038873698</v>
       </c>
       <c r="E12">
-        <v>14.54538550431957</v>
+        <v>10.63939123423358</v>
       </c>
       <c r="F12">
-        <v>34.47015611625698</v>
+        <v>25.28867357025941</v>
       </c>
       <c r="G12">
-        <v>36.85181325297754</v>
+        <v>29.40425065421803</v>
       </c>
       <c r="H12">
-        <v>16.18829612122461</v>
+        <v>9.645078516695335</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.56946141285196</v>
+        <v>6.173405286877911</v>
       </c>
       <c r="K12">
-        <v>18.02430255722103</v>
+        <v>24.77878788283751</v>
       </c>
       <c r="L12">
-        <v>9.772370071375077</v>
+        <v>5.696627791369768</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.61232066324523</v>
+        <v>12.70581497065568</v>
       </c>
       <c r="O12">
-        <v>25.75761674872966</v>
+        <v>16.99467343911212</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>14.04850132610494</v>
+        <v>12.75876393481911</v>
       </c>
       <c r="D13">
-        <v>9.481925767045615</v>
+        <v>7.843351821328444</v>
       </c>
       <c r="E13">
-        <v>14.54417885933006</v>
+        <v>10.62445226436866</v>
       </c>
       <c r="F13">
-        <v>34.4707747289935</v>
+        <v>25.25530701065232</v>
       </c>
       <c r="G13">
-        <v>36.85169045036956</v>
+        <v>29.35633172116004</v>
       </c>
       <c r="H13">
-        <v>16.19052442827433</v>
+        <v>9.643074771036535</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.57028763419448</v>
+        <v>6.172054690067887</v>
       </c>
       <c r="K13">
-        <v>17.99969322505485</v>
+        <v>24.71340398985361</v>
       </c>
       <c r="L13">
-        <v>9.772859442590413</v>
+        <v>5.695100617916369</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.61317836610866</v>
+        <v>12.70572111257356</v>
       </c>
       <c r="O13">
-        <v>25.76042275574302</v>
+        <v>16.98108295057309</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>14.03425341426649</v>
+        <v>12.67321495720077</v>
       </c>
       <c r="D14">
-        <v>9.47398966985352</v>
+        <v>7.795926779731271</v>
       </c>
       <c r="E14">
-        <v>14.54029765920779</v>
+        <v>10.57573495591677</v>
       </c>
       <c r="F14">
-        <v>34.47299952636618</v>
+        <v>25.14691887305774</v>
       </c>
       <c r="G14">
-        <v>36.85157659297032</v>
+        <v>29.20063675137649</v>
       </c>
       <c r="H14">
-        <v>16.1978610861852</v>
+        <v>9.636781054512866</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.57301147634398</v>
+        <v>6.167725813057469</v>
       </c>
       <c r="K14">
-        <v>17.91922125260855</v>
+        <v>24.49903394263458</v>
       </c>
       <c r="L14">
-        <v>9.774476514616657</v>
+        <v>5.690165135263199</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.61601993333938</v>
+        <v>12.70553490883433</v>
       </c>
       <c r="O14">
-        <v>25.76971870102532</v>
+        <v>16.93723080419233</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>14.02557181480522</v>
+        <v>12.62068046738494</v>
       </c>
       <c r="D15">
-        <v>9.469148758180864</v>
+        <v>7.766790836206844</v>
       </c>
       <c r="E15">
-        <v>14.53796181218774</v>
+        <v>10.5458964660136</v>
       </c>
       <c r="F15">
-        <v>34.47452162130303</v>
+        <v>25.08085713509042</v>
       </c>
       <c r="G15">
-        <v>36.8517270681718</v>
+        <v>29.10571548355497</v>
       </c>
       <c r="H15">
-        <v>16.20240852348531</v>
+        <v>9.633109841348999</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.57470247127609</v>
+        <v>6.165132187094494</v>
       </c>
       <c r="K15">
-        <v>17.86976586438514</v>
+        <v>24.36684971079402</v>
       </c>
       <c r="L15">
-        <v>9.775483259891079</v>
+        <v>5.687176496985442</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.61779461776739</v>
+        <v>12.70551247183975</v>
       </c>
       <c r="O15">
-        <v>25.77552407210699</v>
+        <v>16.91072940616997</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.97653073551938</v>
+        <v>12.31763556214731</v>
       </c>
       <c r="D16">
-        <v>9.441721424578557</v>
+        <v>7.598527466395547</v>
       </c>
       <c r="E16">
-        <v>14.52521445865701</v>
+        <v>10.37497265104073</v>
       </c>
       <c r="F16">
-        <v>34.48568618404326</v>
+        <v>24.70735587253461</v>
       </c>
       <c r="G16">
-        <v>36.85596297722571</v>
+        <v>28.56866168946064</v>
       </c>
       <c r="H16">
-        <v>16.22928803406773</v>
+        <v>9.614837513577196</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.58473896313695</v>
+        <v>6.151147189389845</v>
       </c>
       <c r="K16">
-        <v>17.5839147786237</v>
+        <v>23.59587416650873</v>
       </c>
       <c r="L16">
-        <v>9.781501794388138</v>
+        <v>5.670575858803041</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.62848856980497</v>
+        <v>12.70676750294516</v>
       </c>
       <c r="O16">
-        <v>25.81049695714977</v>
+        <v>16.76430951991501</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>13.94708940562757</v>
+        <v>12.13001126267943</v>
       </c>
       <c r="D17">
-        <v>9.42518087813847</v>
+        <v>7.494183282692431</v>
       </c>
       <c r="E17">
-        <v>14.5179665592349</v>
+        <v>10.27021566339236</v>
       </c>
       <c r="F17">
-        <v>34.49471390442431</v>
+        <v>24.48278037924915</v>
       </c>
       <c r="G17">
-        <v>36.8615695917825</v>
+        <v>28.24542091094887</v>
       </c>
       <c r="H17">
-        <v>16.24650902611875</v>
+        <v>9.606039275755714</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.59120511655589</v>
+        <v>6.14334053417053</v>
       </c>
       <c r="K17">
-        <v>17.40645497670082</v>
+        <v>23.11082424214063</v>
       </c>
       <c r="L17">
-        <v>9.785416777767345</v>
+        <v>5.660858529089495</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.63551718969992</v>
+        <v>12.70874993823873</v>
       </c>
       <c r="O17">
-        <v>25.83347073224536</v>
+        <v>16.67928242918857</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>13.93039623003411</v>
+        <v>12.0214899071554</v>
       </c>
       <c r="D18">
-        <v>9.415774000966994</v>
+        <v>7.43377135639582</v>
       </c>
       <c r="E18">
-        <v>14.51400899823486</v>
+        <v>10.21001436138275</v>
       </c>
       <c r="F18">
-        <v>34.50070677439704</v>
+        <v>24.35529629301951</v>
       </c>
       <c r="G18">
-        <v>36.86589871470853</v>
+        <v>28.06181512607493</v>
       </c>
       <c r="H18">
-        <v>16.25668266644603</v>
+        <v>9.601842380881536</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.59503797429691</v>
+        <v>6.13913005808535</v>
       </c>
       <c r="K18">
-        <v>17.3036459682981</v>
+        <v>22.82737623057889</v>
       </c>
       <c r="L18">
-        <v>9.787750597940772</v>
+        <v>5.655439764448527</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.63973221093082</v>
+        <v>12.71032715466025</v>
       </c>
       <c r="O18">
-        <v>25.84724204754131</v>
+        <v>16.63211309297141</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.92478593091132</v>
+        <v>11.98464518612032</v>
       </c>
       <c r="D19">
-        <v>9.412607524163285</v>
+        <v>7.413250493639318</v>
       </c>
       <c r="E19">
-        <v>14.51270540512997</v>
+        <v>10.18964172937165</v>
       </c>
       <c r="F19">
-        <v>34.50287328649019</v>
+        <v>24.31242299701256</v>
       </c>
       <c r="G19">
-        <v>36.86755403384567</v>
+        <v>28.00004924949011</v>
       </c>
       <c r="H19">
-        <v>16.26017339972467</v>
+        <v>9.600567580072154</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.59635525178769</v>
+        <v>6.137752101252464</v>
       </c>
       <c r="K19">
-        <v>17.26871291204132</v>
+        <v>22.73063768439062</v>
       </c>
       <c r="L19">
-        <v>9.788554890869333</v>
+        <v>5.653634223876238</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.64118897087136</v>
+        <v>12.71093541848084</v>
       </c>
       <c r="O19">
-        <v>25.85200043215418</v>
+        <v>16.61643789969531</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>13.95019866556098</v>
+        <v>12.15004739896325</v>
       </c>
       <c r="D20">
-        <v>9.426930637698188</v>
+        <v>7.505332243606877</v>
       </c>
       <c r="E20">
-        <v>14.5187162692758</v>
+        <v>10.28136218912538</v>
       </c>
       <c r="F20">
-        <v>34.49367004591652</v>
+        <v>24.50651261070886</v>
       </c>
       <c r="G20">
-        <v>36.86085843483288</v>
+        <v>28.27959157275108</v>
       </c>
       <c r="H20">
-        <v>16.24464802125746</v>
+        <v>9.606885974979445</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.5905050186458</v>
+        <v>6.144142521896822</v>
       </c>
       <c r="K20">
-        <v>17.42542309572656</v>
+        <v>23.16291978930297</v>
       </c>
       <c r="L20">
-        <v>9.784991535033823</v>
+        <v>5.661875296370402</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.63475115018283</v>
+        <v>12.70849348751607</v>
       </c>
       <c r="O20">
-        <v>25.83096742584219</v>
+        <v>16.6881534202235</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>14.03842888004964</v>
+        <v>12.69837065731675</v>
       </c>
       <c r="D21">
-        <v>9.47631650046471</v>
+        <v>7.809874814504965</v>
       </c>
       <c r="E21">
-        <v>14.54142901890847</v>
+        <v>10.59004401648857</v>
       </c>
       <c r="F21">
-        <v>34.47231284237629</v>
+        <v>25.17868657164967</v>
       </c>
       <c r="G21">
-        <v>36.85156413925678</v>
+        <v>29.24627524996455</v>
       </c>
       <c r="H21">
-        <v>16.19569497699811</v>
+        <v>9.638591228012828</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.57220671638878</v>
+        <v>6.168985211339252</v>
       </c>
       <c r="K21">
-        <v>17.94289216222475</v>
+        <v>24.56218214315557</v>
       </c>
       <c r="L21">
-        <v>9.773998157367942</v>
+        <v>5.691607612881118</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.61517818244921</v>
+        <v>12.70557045835795</v>
       </c>
       <c r="O21">
-        <v>25.76696504989011</v>
+        <v>16.9500362261698</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>14.09814715096859</v>
+        <v>13.05083304921107</v>
       </c>
       <c r="D22">
-        <v>9.5095014767805</v>
+        <v>8.005069579112604</v>
       </c>
       <c r="E22">
-        <v>14.55813319484056</v>
+        <v>10.79192827449449</v>
       </c>
       <c r="F22">
-        <v>34.46548586940996</v>
+        <v>25.63275416454006</v>
       </c>
       <c r="G22">
-        <v>36.85534348813288</v>
+        <v>29.89811004737803</v>
       </c>
       <c r="H22">
-        <v>16.16609643748186</v>
+        <v>9.667481413841202</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.56125787398446</v>
+        <v>6.187802959051041</v>
       </c>
       <c r="K22">
-        <v>18.2738348966429</v>
+        <v>25.43740092271259</v>
       </c>
       <c r="L22">
-        <v>9.767540691203594</v>
+        <v>5.712580028667129</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.60391498968713</v>
+        <v>12.70773727944736</v>
       </c>
       <c r="O22">
-        <v>25.7301167303424</v>
+        <v>17.13720302643997</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>14.06609077813219</v>
+        <v>12.86327885408929</v>
       </c>
       <c r="D23">
-        <v>9.491709009079578</v>
+        <v>7.901255796346411</v>
       </c>
       <c r="E23">
-        <v>14.54904872475111</v>
+        <v>10.68418036984256</v>
       </c>
       <c r="F23">
-        <v>34.46847699641457</v>
+        <v>25.38907084818007</v>
       </c>
       <c r="G23">
-        <v>36.85242410599066</v>
+        <v>29.54840477831458</v>
       </c>
       <c r="H23">
-        <v>16.18167442044854</v>
+        <v>9.651291521238864</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.5670091612721</v>
+        <v>6.177518913625318</v>
       </c>
       <c r="K23">
-        <v>18.09789913989503</v>
+        <v>24.97385262147248</v>
       </c>
       <c r="L23">
-        <v>9.770920761394649</v>
+        <v>5.701244549554246</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.60978676108686</v>
+        <v>12.70619850496939</v>
       </c>
       <c r="O23">
-        <v>25.74932681844622</v>
+        <v>17.03581816338679</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>13.94879224230228</v>
+        <v>12.14099109162836</v>
       </c>
       <c r="D24">
-        <v>9.426139251656206</v>
+        <v>7.500293112430765</v>
       </c>
       <c r="E24">
-        <v>14.51837667303565</v>
+        <v>10.27632276362939</v>
       </c>
       <c r="F24">
-        <v>34.49413947399719</v>
+        <v>24.49577819723852</v>
       </c>
       <c r="G24">
-        <v>36.86117650461369</v>
+        <v>28.26413606546176</v>
       </c>
       <c r="H24">
-        <v>16.24548853100423</v>
+        <v>9.606500504717957</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.59082117348755</v>
+        <v>6.143779079355887</v>
       </c>
       <c r="K24">
-        <v>17.41685004649153</v>
+        <v>23.13938168265622</v>
       </c>
       <c r="L24">
-        <v>9.785183528567206</v>
+        <v>5.661415093301652</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.63509693403697</v>
+        <v>12.7086080682431</v>
       </c>
       <c r="O24">
-        <v>25.83209741592994</v>
+        <v>16.68413751316288</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.83151528693423</v>
+        <v>11.33921570851504</v>
       </c>
       <c r="D25">
-        <v>9.359518009492508</v>
+        <v>7.052913979768731</v>
       </c>
       <c r="E25">
-        <v>14.49337789411797</v>
+        <v>9.838608286860373</v>
       </c>
       <c r="F25">
-        <v>34.55241026759843</v>
+        <v>23.59678917560657</v>
       </c>
       <c r="G25">
-        <v>36.91281214293927</v>
+        <v>26.96761526397665</v>
       </c>
       <c r="H25">
-        <v>16.3245886624497</v>
+        <v>9.590921785577358</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.6208544556122</v>
+        <v>6.118026171126203</v>
       </c>
       <c r="K25">
-        <v>16.65446485805984</v>
+        <v>20.98985144280747</v>
       </c>
       <c r="L25">
-        <v>9.80370597743987</v>
+        <v>5.624952579161536</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.66899045525572</v>
+        <v>12.72781377193432</v>
       </c>
       <c r="O25">
-        <v>25.94267753962627</v>
+        <v>16.37076050794469</v>
       </c>
     </row>
   </sheetData>
